--- a/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
+++ b/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="164">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -128,15 +128,9 @@
     <t>¿Se tienen definidos los supuestos y premisas?</t>
   </si>
   <si>
-    <t>Plan de proyecto</t>
-  </si>
-  <si>
     <t>¿Se tiene un cronograma de actividades?</t>
   </si>
   <si>
-    <t>¿Se genero una estimación el proyecto?</t>
-  </si>
-  <si>
     <t>¿Se encuentran definidos los equipos de trabajo por parte del cliente?</t>
   </si>
   <si>
@@ -422,12 +416,6 @@
     <t>¿Se tiene documentado lo que se encuentra fuera del alcance?</t>
   </si>
   <si>
-    <t>¿Se especifican todos los datos les proyecto?</t>
-  </si>
-  <si>
-    <t>¿Se tiene definido una estrategia?</t>
-  </si>
-  <si>
     <t>¿Se encuentra definido el equipo de Bisoltec?</t>
   </si>
   <si>
@@ -552,6 +540,18 @@
   </si>
   <si>
     <t>¿Se tiene definido un costo de venta del proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se especifican todos los datos del proyecto?</t>
+  </si>
+  <si>
+    <t>Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>¿Se generó una estimación del proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se tiene definida una estrategia?</t>
   </si>
 </sst>
 </file>
@@ -1216,6 +1216,15 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,15 +1232,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1311,7 +1311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1370,7 +1369,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1392,11 +1391,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="100776960"/>
-        <c:axId val="68432640"/>
+        <c:axId val="63267200"/>
+        <c:axId val="63268736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100776960"/>
+        <c:axId val="63267200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,14 +1436,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68432640"/>
+        <c:crossAx val="63268736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68432640"/>
+        <c:axId val="63268736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1494,7 +1493,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100776960"/>
+        <c:crossAx val="63267200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1536,7 +1535,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1577,7 +1576,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1618,7 +1616,7 @@
                   <c:v>Propuesta</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Plan de proyecto</c:v>
+                  <c:v>Plan de Proyecto</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Plan de Pruebas</c:v>
@@ -1648,7 +1646,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1670,11 +1668,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="96748288"/>
-        <c:axId val="96749824"/>
+        <c:axId val="63297408"/>
+        <c:axId val="63298944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96748288"/>
+        <c:axId val="63297408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,14 +1713,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96749824"/>
+        <c:crossAx val="63298944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96749824"/>
+        <c:axId val="63298944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1772,7 +1770,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96748288"/>
+        <c:crossAx val="63297408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,7 +1812,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1850,7 +1848,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1919,11 +1916,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="96769920"/>
-        <c:axId val="96771456"/>
+        <c:axId val="63736832"/>
+        <c:axId val="63750912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96769920"/>
+        <c:axId val="63736832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,14 +1961,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96771456"/>
+        <c:crossAx val="63750912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96771456"/>
+        <c:axId val="63750912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2021,7 +2018,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96769920"/>
+        <c:crossAx val="63736832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2063,7 +2060,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2099,7 +2096,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2168,11 +2164,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="96877568"/>
-        <c:axId val="96879360"/>
+        <c:axId val="63340928"/>
+        <c:axId val="63342464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96877568"/>
+        <c:axId val="63340928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,14 +2209,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96879360"/>
+        <c:crossAx val="63342464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96879360"/>
+        <c:axId val="63342464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2270,7 +2266,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96877568"/>
+        <c:crossAx val="63340928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2312,7 +2308,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2486,56 +2482,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>591799</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34314</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen" descr="Bisoltec.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6915150" y="66675"/>
-          <a:ext cx="2487274" cy="824889"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>429874</xdr:colOff>
+      <xdr:colOff>467974</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>15264</xdr:rowOff>
     </xdr:to>
@@ -2554,7 +2507,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6715125" y="47625"/>
+          <a:off x="7315200" y="47625"/>
+          <a:ext cx="2487274" cy="824889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>853464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen" descr="Bisoltec.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="28575"/>
           <a:ext cx="2487274" cy="824889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2571,16 +2567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>515599</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5739</xdr:rowOff>
+      <xdr:colOff>610849</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>834414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2597,7 +2593,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="38100"/>
+          <a:off x="8258175" y="9525"/>
           <a:ext cx="2487274" cy="824889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2615,15 +2611,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>448924</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>24789</xdr:rowOff>
+      <xdr:colOff>439399</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>853464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2640,7 +2636,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029450" y="57150"/>
+          <a:off x="7353300" y="28575"/>
           <a:ext cx="2487274" cy="824889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2961,7 +2957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2971,7 +2967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -3011,10 +3007,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
@@ -3022,10 +3018,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
@@ -3047,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="82"/>
@@ -3057,7 +3053,7 @@
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="B12" s="73" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -3094,11 +3090,11 @@
       </c>
       <c r="C15" s="9">
         <f>COUNTA(Procesos!D14:D20)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="10" t="e">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10">
         <f>COUNTIF((Procesos!D14:D20),"x")/(COUNTIF((Procesos!D14:D20),"x")+COUNTIF((Procesos!E14:E20),"x"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
@@ -3146,7 +3142,7 @@
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
       <c r="B20" s="73" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="73"/>
@@ -3207,15 +3203,15 @@
     <row r="25" spans="2:8" ht="16.5" customHeight="1">
       <c r="B25" s="8" t="str">
         <f>Productos!B46</f>
-        <v>Plan de proyecto</v>
+        <v>Plan de Proyecto</v>
       </c>
       <c r="C25" s="9">
         <f>COUNTA(Productos!D47:D62)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="10" t="e">
+        <v>16</v>
+      </c>
+      <c r="D25" s="10">
         <f>COUNTIF((Productos!D47:D62),"x")/(COUNTIF((Productos!D47:D62),"x")+COUNTIF((Productos!E47:E62),"x"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1">
@@ -3263,7 +3259,7 @@
     <row r="29" spans="2:8" ht="19.5" customHeight="1"/>
     <row r="30" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="B30" s="74" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="75"/>
@@ -3419,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3429,7 +3425,7 @@
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="54.42578125" style="2" customWidth="1"/>
     <col min="4" max="6" width="11.5703125" style="2"/>
-    <col min="7" max="7" width="31.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -3443,22 +3439,22 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -3468,17 +3464,17 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B6" s="20">
@@ -3488,7 +3484,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -3503,7 +3499,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -3515,10 +3511,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -3533,7 +3529,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -3545,10 +3541,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3560,10 +3556,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -3571,23 +3567,25 @@
     </row>
     <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="B13" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B14" s="20">
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="22"/>
+        <v>78</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
@@ -3598,9 +3596,11 @@
         <v>2</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="22"/>
+        <v>79</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="23"/>
@@ -3611,9 +3611,11 @@
         <v>3</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
@@ -3624,9 +3626,11 @@
         <v>4</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>81</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
@@ -3637,9 +3641,11 @@
         <v>5</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
@@ -3650,9 +3656,11 @@
         <v>6</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="22"/>
+        <v>83</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
@@ -3663,30 +3671,32 @@
         <v>7</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="22"/>
+        <v>136</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="B22" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="90"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B23" s="20">
         <v>1</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -3699,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -3712,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -3725,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -3738,7 +3748,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -3751,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -3764,7 +3774,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -3777,7 +3787,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -3786,10 +3796,10 @@
     </row>
     <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B32" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="85"/>
+      <c r="B32" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="88"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -3800,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -3813,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -3826,7 +3836,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -3839,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -3848,21 +3858,21 @@
     </row>
     <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="38" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B38" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
+      <c r="B38" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
       <c r="B39" s="20">
         <v>1</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -3875,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -3888,7 +3898,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -3901,7 +3911,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -3914,7 +3924,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -3927,12 +3937,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
@@ -3943,6 +3947,12 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:F30">
     <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
@@ -3964,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3974,7 +3984,7 @@
     <col min="2" max="2" width="3" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.140625" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -3990,23 +4000,23 @@
     </row>
     <row r="3" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="34"/>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -4016,18 +4026,18 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="28"/>
-      <c r="B5" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="B5" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A6" s="32"/>
@@ -4035,10 +4045,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -4051,10 +4061,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -4067,10 +4077,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
@@ -4083,10 +4093,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
@@ -4099,10 +4109,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -4115,10 +4125,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -4131,10 +4141,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -4147,10 +4157,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -4163,10 +4173,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -4179,10 +4189,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -4195,10 +4205,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -4215,14 +4225,14 @@
     </row>
     <row r="18" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="43"/>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A19" s="32"/>
@@ -4230,10 +4240,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
@@ -4246,10 +4256,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -4262,10 +4272,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -4278,10 +4288,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -4294,10 +4304,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -4310,10 +4320,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -4326,10 +4336,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -4342,10 +4352,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -4358,10 +4368,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -4374,10 +4384,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -4390,10 +4400,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -4406,10 +4416,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
@@ -4422,10 +4432,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -4442,14 +4452,14 @@
     </row>
     <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="88"/>
+      <c r="B33" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="87"/>
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A34" s="32"/>
@@ -4457,10 +4467,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -4473,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -4489,10 +4499,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -4505,10 +4515,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -4521,10 +4531,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -4537,10 +4547,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -4556,7 +4566,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -4572,7 +4582,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
@@ -4585,10 +4595,10 @@
         <v>9</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -4601,10 +4611,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -4617,10 +4627,10 @@
         <v>11</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -4635,16 +4645,16 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+    <row r="46" spans="1:7" s="44" customFormat="1" ht="18.75" customHeight="1">
       <c r="A46" s="43"/>
-      <c r="B46" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
+      <c r="B46" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
     </row>
     <row r="47" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A47" s="32"/>
@@ -4652,9 +4662,11 @@
         <v>1</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="22"/>
+        <v>160</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="23"/>
@@ -4666,9 +4678,11 @@
         <v>2</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="22"/>
+        <v>163</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="23"/>
@@ -4680,9 +4694,11 @@
         <v>3</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="22"/>
+        <v>149</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="23"/>
@@ -4694,9 +4710,11 @@
         <v>4</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="22"/>
+        <v>150</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="23"/>
@@ -4708,9 +4726,11 @@
         <v>5</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="23"/>
@@ -4722,9 +4742,11 @@
         <v>6</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="22"/>
+        <v>162</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="23"/>
@@ -4736,9 +4758,11 @@
         <v>7</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="22"/>
+        <v>118</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="23"/>
@@ -4750,9 +4774,11 @@
         <v>8</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="23"/>
@@ -4764,9 +4790,11 @@
         <v>9</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="23"/>
@@ -4778,9 +4806,11 @@
         <v>10</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="23"/>
@@ -4792,9 +4822,11 @@
         <v>11</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="23"/>
@@ -4806,9 +4838,11 @@
         <v>12</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="23"/>
@@ -4820,9 +4854,11 @@
         <v>13</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="23"/>
@@ -4834,9 +4870,11 @@
         <v>14</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="23"/>
@@ -4848,9 +4886,11 @@
         <v>15</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="23"/>
@@ -4862,9 +4902,11 @@
         <v>16</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="23"/>
@@ -4880,14 +4922,14 @@
     </row>
     <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="43"/>
-      <c r="B64" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
+      <c r="B64" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
     </row>
     <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A65" s="32"/>
@@ -4895,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
@@ -4909,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
@@ -4923,7 +4965,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -4937,7 +4979,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
@@ -4951,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
@@ -4965,7 +5007,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
@@ -4983,14 +5025,14 @@
     </row>
     <row r="72" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A72" s="43"/>
-      <c r="B72" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
+      <c r="B72" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
     </row>
     <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A73" s="32"/>
@@ -4998,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -5012,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -5026,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -5040,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -5058,21 +5100,21 @@
     </row>
     <row r="78" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A78" s="43"/>
-      <c r="B78" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
+      <c r="B78" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="87"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
     </row>
     <row r="79" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="B79" s="46">
         <v>1</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -5085,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
@@ -5098,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
@@ -5111,7 +5153,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
@@ -5124,7 +5166,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
@@ -5137,7 +5179,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
@@ -5150,7 +5192,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
@@ -5162,29 +5204,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
   </mergeCells>
   <conditionalFormatting sqref="C86">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
@@ -5201,7 +5243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -5211,7 +5253,7 @@
     <col min="2" max="2" width="3.140625" style="52" customWidth="1"/>
     <col min="3" max="3" width="73.140625" style="50" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" style="52"/>
-    <col min="7" max="7" width="26.140625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" style="50" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="50"/>
     <col min="9" max="9" width="5.42578125" style="51" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" style="50" customWidth="1"/>
@@ -5221,16 +5263,16 @@
   <sheetData>
     <row r="1" spans="2:12" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="49"/>
@@ -5240,8 +5282,8 @@
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" ht="17.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5251,7 +5293,7 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -5259,10 +5301,10 @@
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="88"/>
+      <c r="B5" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="87"/>
       <c r="D5" s="91"/>
       <c r="E5" s="91"/>
       <c r="F5" s="91"/>
@@ -5278,10 +5320,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -5300,10 +5342,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -5322,12 +5364,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="57"/>
@@ -5352,14 +5394,14 @@
       <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+      <c r="B10" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="54"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -5371,10 +5413,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -5393,10 +5435,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -5415,10 +5457,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -5437,12 +5479,12 @@
         <v>7</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="57"/>
@@ -5467,14 +5509,14 @@
       <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="B16" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="54"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -5486,12 +5528,12 @@
         <v>8</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="57"/>
@@ -5513,18 +5555,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5537,7 +5579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -5547,28 +5589,28 @@
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="61.85546875" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.5703125" style="1"/>
-    <col min="7" max="7" width="34.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:7" ht="17.25">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5578,13 +5620,13 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="88"/>
+      <c r="B5" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="87"/>
       <c r="D5" s="91"/>
       <c r="E5" s="91"/>
       <c r="F5" s="91"/>
@@ -5595,10 +5637,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
@@ -5609,10 +5651,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
@@ -5623,10 +5665,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
@@ -5637,10 +5679,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -5655,10 +5697,10 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1">
-      <c r="B11" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="88"/>
+      <c r="B11" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="87"/>
       <c r="D11" s="92"/>
       <c r="E11" s="92"/>
       <c r="F11" s="92"/>
@@ -5669,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
@@ -5683,10 +5725,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
@@ -5697,12 +5739,12 @@
         <v>3</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G14" s="68"/>
     </row>
@@ -5711,10 +5753,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -5725,12 +5767,12 @@
         <v>5</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G16" s="68"/>
     </row>
@@ -5739,12 +5781,12 @@
         <v>6</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G17" s="68"/>
     </row>
@@ -5754,10 +5796,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E18" s="67"/>
       <c r="F18" s="67"/>
@@ -5769,10 +5811,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
@@ -5787,26 +5829,26 @@
       <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B21" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="B21" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
     </row>
     <row r="22" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B22" s="20">
         <v>1</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
       <c r="F22" s="69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G22" s="70"/>
     </row>
@@ -5816,12 +5858,12 @@
         <v>2</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G23" s="23"/>
     </row>
@@ -5831,12 +5873,12 @@
         <v>3</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G24" s="23"/>
     </row>
@@ -5846,12 +5888,12 @@
         <v>4</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G25" s="23"/>
     </row>
@@ -5861,29 +5903,29 @@
         <v>5</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
+++ b/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -419,9 +419,6 @@
     <t>¿Se encuentra definido el equipo de Bisoltec?</t>
   </si>
   <si>
-    <t>¿Se tiene definido los tipos de prueba?</t>
-  </si>
-  <si>
     <t>¿Se identificaron los Requerimientos?</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>Control De Gastos</t>
   </si>
   <si>
-    <t>Jovanny Zepeda</t>
-  </si>
-  <si>
     <t>Vianey Castillo</t>
   </si>
   <si>
@@ -552,6 +546,9 @@
   </si>
   <si>
     <t>¿Se tiene definida una estrategia?</t>
+  </si>
+  <si>
+    <t>Mayra Tejeda</t>
   </si>
 </sst>
 </file>
@@ -1311,6 +1308,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1391,11 +1389,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="63267200"/>
-        <c:axId val="63268736"/>
+        <c:axId val="97077888"/>
+        <c:axId val="108020480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63267200"/>
+        <c:axId val="97077888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,14 +1434,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63268736"/>
+        <c:crossAx val="108020480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63268736"/>
+        <c:axId val="108020480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1493,7 +1491,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63267200"/>
+        <c:crossAx val="97077888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1535,7 +1533,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1576,6 +1574,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1649,7 +1648,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1668,11 +1667,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="63297408"/>
-        <c:axId val="63298944"/>
+        <c:axId val="108049152"/>
+        <c:axId val="108050688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63297408"/>
+        <c:axId val="108049152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,14 +1712,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63298944"/>
+        <c:crossAx val="108050688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63298944"/>
+        <c:axId val="108050688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1770,7 +1769,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63297408"/>
+        <c:crossAx val="108049152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1812,7 +1811,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1848,6 +1847,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1916,11 +1916,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="63736832"/>
-        <c:axId val="63750912"/>
+        <c:axId val="100878208"/>
+        <c:axId val="100879744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63736832"/>
+        <c:axId val="100878208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +1961,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63750912"/>
+        <c:crossAx val="100879744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63750912"/>
+        <c:axId val="100879744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2018,7 +2018,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63736832"/>
+        <c:crossAx val="100878208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2060,7 +2060,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2096,6 +2096,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2164,11 +2165,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="63340928"/>
-        <c:axId val="63342464"/>
+        <c:axId val="100891648"/>
+        <c:axId val="100905728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63340928"/>
+        <c:axId val="100891648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,14 +2210,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63342464"/>
+        <c:crossAx val="100905728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63342464"/>
+        <c:axId val="100905728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2266,7 +2267,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63340928"/>
+        <c:crossAx val="100891648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2308,7 +2309,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2967,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3007,10 +3008,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
@@ -3021,7 +3022,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
@@ -3032,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="84">
-        <v>42464</v>
+        <v>42474</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
@@ -3043,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="82"/>
@@ -3053,7 +3054,7 @@
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="B12" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -3142,7 +3143,7 @@
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
       <c r="B20" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="73"/>
@@ -3220,46 +3221,46 @@
         <v>Plan de Pruebas</v>
       </c>
       <c r="C26" s="9">
-        <f>COUNTA(Productos!D65:D70)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="10" t="e">
-        <f>COUNTIF((Productos!D65:D70),"x")/(COUNTIF((Productos!D65:D70),"x")+COUNTIF((Productos!E65:E70),"x"))</f>
-        <v>#DIV/0!</v>
+        <f>COUNTA(Productos!D65:D69)</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <f>COUNTIF((Productos!D65:D69),"x")/(COUNTIF((Productos!D65:D69),"x")+COUNTIF((Productos!E65:E69),"x"))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1">
       <c r="B27" s="8" t="str">
-        <f>Productos!B72</f>
+        <f>Productos!B71</f>
         <v>Carta de Aceptación</v>
       </c>
       <c r="C27" s="9">
-        <f>COUNTA(Productos!D73:D76)</f>
+        <f>COUNTA(Productos!D72:D75)</f>
         <v>0</v>
       </c>
       <c r="D27" s="10" t="e">
-        <f>COUNTIF((Productos!D73:D76),"x")/(COUNTIF((Productos!D73:D76),"x")+COUNTIF((Productos!E73:E76),"x"))</f>
+        <f>COUNTIF((Productos!D72:D75),"x")/(COUNTIF((Productos!D72:D75),"x")+COUNTIF((Productos!E72:E75),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="16.5" customHeight="1">
       <c r="B28" s="8" t="str">
-        <f>Productos!B78</f>
+        <f>Productos!B77</f>
         <v>Reporte de Monitoreo</v>
       </c>
       <c r="C28" s="9">
-        <f>COUNTA(Productos!D79:D85)</f>
+        <f>COUNTA(Productos!D78:D84)</f>
         <v>0</v>
       </c>
       <c r="D28" s="10" t="e">
-        <f>COUNTIF((Productos!D79:D85),"x")/(COUNTIF((Productos!D79:D85),"x")+COUNTIF((Productos!E79:E85),"x"))</f>
+        <f>COUNTIF((Productos!D78:D84),"x")/(COUNTIF((Productos!D78:D84),"x")+COUNTIF((Productos!E78:E84),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="19.5" customHeight="1"/>
     <row r="30" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="B30" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="75"/>
@@ -3415,8 +3416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3484,7 +3485,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -3499,7 +3500,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -3514,7 +3515,7 @@
         <v>75</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -3529,7 +3530,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -3544,7 +3545,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3559,7 +3560,7 @@
         <v>77</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -3584,7 +3585,7 @@
         <v>78</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3599,7 +3600,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -3614,7 +3615,7 @@
         <v>80</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3629,7 +3630,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -3644,7 +3645,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3659,7 +3660,7 @@
         <v>83</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -3671,10 +3672,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -3810,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -3823,7 +3824,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -3849,7 +3850,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -3924,7 +3925,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -3972,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:G57"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4031,7 +4032,7 @@
     <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="28"/>
       <c r="B5" s="87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
@@ -4048,7 +4049,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -4064,7 +4065,7 @@
         <v>98</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -4080,7 +4081,7 @@
         <v>99</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
@@ -4093,10 +4094,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
@@ -4112,7 +4113,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -4128,7 +4129,7 @@
         <v>101</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -4141,10 +4142,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -4160,7 +4161,7 @@
         <v>102</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -4173,10 +4174,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -4192,7 +4193,7 @@
         <v>103</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -4208,7 +4209,7 @@
         <v>104</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -4240,10 +4241,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
@@ -4256,10 +4257,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -4272,10 +4273,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -4288,10 +4289,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -4304,10 +4305,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -4320,10 +4321,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -4339,7 +4340,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -4355,7 +4356,7 @@
         <v>106</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -4371,7 +4372,7 @@
         <v>107</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -4387,7 +4388,7 @@
         <v>108</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -4403,7 +4404,7 @@
         <v>109</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -4416,10 +4417,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
@@ -4432,10 +4433,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -4470,7 +4471,7 @@
         <v>110</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -4486,7 +4487,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -4502,7 +4503,7 @@
         <v>112</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -4518,7 +4519,7 @@
         <v>113</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -4534,7 +4535,7 @@
         <v>114</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -4550,7 +4551,7 @@
         <v>115</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -4566,7 +4567,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -4582,7 +4583,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
@@ -4595,10 +4596,10 @@
         <v>9</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -4614,7 +4615,7 @@
         <v>116</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -4630,7 +4631,7 @@
         <v>117</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -4648,7 +4649,7 @@
     <row r="46" spans="1:7" s="44" customFormat="1" ht="18.75" customHeight="1">
       <c r="A46" s="43"/>
       <c r="B46" s="87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" s="87"/>
       <c r="D46" s="87"/>
@@ -4662,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -4678,10 +4679,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -4694,10 +4695,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
@@ -4710,10 +4711,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -4729,7 +4730,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -4742,10 +4743,10 @@
         <v>6</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -4761,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
@@ -4777,7 +4778,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -4793,7 +4794,7 @@
         <v>24</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -4809,7 +4810,7 @@
         <v>26</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -4825,7 +4826,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
@@ -4841,7 +4842,7 @@
         <v>27</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -4857,7 +4858,7 @@
         <v>28</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
@@ -4873,7 +4874,7 @@
         <v>29</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -4889,7 +4890,7 @@
         <v>30</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
@@ -4905,7 +4906,7 @@
         <v>31</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -4939,7 +4940,9 @@
       <c r="C65" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="22"/>
+      <c r="D65" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="23"/>
@@ -4953,7 +4956,9 @@
       <c r="C66" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="22"/>
+      <c r="D66" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="23"/>
@@ -4961,13 +4966,15 @@
     <row r="67" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A67" s="32"/>
       <c r="B67" s="48">
-        <f t="shared" ref="B67:B70" si="4">B66+1</f>
+        <f t="shared" ref="B67:B69" si="4">B66+1</f>
         <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="22"/>
+        <v>150</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="23"/>
@@ -4979,9 +4986,11 @@
         <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="22"/>
+        <v>121</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="23"/>
@@ -4995,52 +5004,54 @@
       <c r="C69" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="22"/>
+      <c r="D69" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="23"/>
     </row>
     <row r="70" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A70" s="32"/>
-      <c r="B70" s="48">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
-    </row>
-    <row r="71" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A71" s="32"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-    </row>
-    <row r="72" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A72" s="43"/>
-      <c r="B72" s="87" t="s">
+      <c r="B70" s="48"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+    </row>
+    <row r="71" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A71" s="43"/>
+      <c r="B71" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+    </row>
+    <row r="72" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="A72" s="32"/>
+      <c r="B72" s="48">
+        <v>1</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A73" s="32"/>
       <c r="B73" s="48">
-        <v>1</v>
+        <f>B72+1</f>
+        <v>2</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -5050,11 +5061,11 @@
     <row r="74" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A74" s="32"/>
       <c r="B74" s="48">
-        <f>B73+1</f>
-        <v>2</v>
+        <f t="shared" ref="B74:B75" si="5">B73+1</f>
+        <v>3</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -5064,8 +5075,8 @@
     <row r="75" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A75" s="32"/>
       <c r="B75" s="48">
-        <f t="shared" ref="B75:B76" si="5">B74+1</f>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="C75" s="25" t="s">
         <v>125</v>
@@ -5077,44 +5088,43 @@
     </row>
     <row r="76" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A76" s="32"/>
-      <c r="B76" s="48">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
-    </row>
-    <row r="77" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A77" s="32"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-    </row>
-    <row r="78" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A78" s="43"/>
-      <c r="B78" s="87" t="s">
+      <c r="B76" s="48"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+    </row>
+    <row r="77" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A77" s="43"/>
+      <c r="B77" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
+    </row>
+    <row r="78" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="B78" s="46">
+        <v>1</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="B79" s="46">
-        <v>1</v>
+        <f>B78+1</f>
+        <v>2</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -5123,11 +5133,11 @@
     </row>
     <row r="80" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="B80" s="46">
-        <f>B79+1</f>
-        <v>2</v>
+        <f t="shared" ref="B80:B84" si="6">B79+1</f>
+        <v>3</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
@@ -5136,11 +5146,11 @@
     </row>
     <row r="81" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B81" s="46">
-        <f t="shared" ref="B81:B85" si="6">B80+1</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
@@ -5150,10 +5160,10 @@
     <row r="82" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B82" s="46">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
@@ -5163,10 +5173,10 @@
     <row r="83" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B83" s="46">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
@@ -5176,40 +5186,27 @@
     <row r="84" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B84" s="46">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="23"/>
     </row>
-    <row r="85" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B85" s="46">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23"/>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="C86" s="31"/>
+    <row r="85" spans="2:7">
+      <c r="C85" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
@@ -5228,7 +5225,7 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B3:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C86">
+  <conditionalFormatting sqref="C85">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!,TRUE,FALSE)</formula>
     </cfRule>
@@ -5244,7 +5241,7 @@
   <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5323,7 +5320,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -5345,7 +5342,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -5369,7 +5366,7 @@
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="57"/>
@@ -5413,10 +5410,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -5438,7 +5435,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -5460,7 +5457,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -5484,7 +5481,7 @@
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="57"/>
@@ -5533,7 +5530,7 @@
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="57"/>
@@ -5580,7 +5577,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -5640,7 +5637,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
@@ -5654,7 +5651,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
@@ -5665,10 +5662,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
@@ -5682,7 +5679,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -5714,7 +5711,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
@@ -5728,7 +5725,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
@@ -5744,7 +5741,7 @@
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G14" s="68"/>
     </row>
@@ -5756,7 +5753,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -5772,7 +5769,7 @@
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G16" s="68"/>
     </row>
@@ -5786,7 +5783,7 @@
       <c r="D17" s="67"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="68"/>
     </row>
@@ -5799,7 +5796,7 @@
         <v>60</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E18" s="67"/>
       <c r="F18" s="67"/>
@@ -5811,10 +5808,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
@@ -5848,7 +5845,7 @@
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
       <c r="F22" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G22" s="70"/>
     </row>
@@ -5863,7 +5860,7 @@
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G23" s="23"/>
     </row>
@@ -5878,7 +5875,7 @@
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G24" s="23"/>
     </row>
@@ -5893,7 +5890,7 @@
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G25" s="23"/>
     </row>
@@ -5908,7 +5905,7 @@
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" s="23"/>
     </row>

--- a/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
+++ b/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="149">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -161,24 +161,6 @@
     <t>¿Se tiene el nombre de contacto del cliente?</t>
   </si>
   <si>
-    <t>¿Se definieron las etapas del proyecto?</t>
-  </si>
-  <si>
-    <t>¿Se revisaron los hitos?</t>
-  </si>
-  <si>
-    <t>¿Se revisaron los costos planeados y reales del proyecto?</t>
-  </si>
-  <si>
-    <t>¿Se reporte el esfuerzo planeado y real de cada etapa?</t>
-  </si>
-  <si>
-    <t>¿Se revisaron los resultados de las auditorias?</t>
-  </si>
-  <si>
-    <t>¿Se analizaron los riesgos?</t>
-  </si>
-  <si>
     <t>Elementos de Configuración</t>
   </si>
   <si>
@@ -272,9 +254,6 @@
     <t>Entrega</t>
   </si>
   <si>
-    <t>Medición y Monitoreo</t>
-  </si>
-  <si>
     <t>Propuesta</t>
   </si>
   <si>
@@ -284,9 +263,6 @@
     <t>Carta de Aceptación</t>
   </si>
   <si>
-    <t>Reporte de Monitoreo</t>
-  </si>
-  <si>
     <t>¿Se generó la estimación?</t>
   </si>
   <si>
@@ -341,18 +317,6 @@
     <t>¿Se instaló el producto?</t>
   </si>
   <si>
-    <t>¿Se establecieron los objetivos?</t>
-  </si>
-  <si>
-    <t>¿Se establecieron las metricas?</t>
-  </si>
-  <si>
-    <t>¿Se recolectaron las metricas?</t>
-  </si>
-  <si>
-    <t>¿Se generó el reporte de monitoreo?</t>
-  </si>
-  <si>
     <t>¿Se encuentra especificado el nombre del proyecto?</t>
   </si>
   <si>
@@ -431,15 +395,9 @@
     <t>¿Se tiene un estatus para las pruebas?</t>
   </si>
   <si>
-    <t>¿Se reporto el avance del proyecto?</t>
-  </si>
-  <si>
     <t>¿Se tiene la lista de entregables?</t>
   </si>
   <si>
-    <t>¿Se tiene firmada la carta de aceptación?</t>
-  </si>
-  <si>
     <t>¿Se tienen los datos del cliente?</t>
   </si>
   <si>
@@ -464,9 +422,6 @@
     <t>¿Se cerró el proyecto?</t>
   </si>
   <si>
-    <t>¿Se presentó el reporte de monitoreo?</t>
-  </si>
-  <si>
     <t>¿Se realizó el kick off?</t>
   </si>
   <si>
@@ -548,7 +503,10 @@
     <t>¿Se tiene definida una estrategia?</t>
   </si>
   <si>
-    <t>Mayra Tejeda</t>
+    <t>Jovanny Zepeda</t>
+  </si>
+  <si>
+    <t>Todo el proceso de cambios ha sido vía correo electrónico</t>
   </si>
 </sst>
 </file>
@@ -1243,14 +1201,7 @@
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Porcentaje 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1336,9 +1287,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$14:$B$18</c:f>
+              <c:f>Resumen!$B$14:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Requerimientos</c:v>
                 </c:pt>
@@ -1351,18 +1302,15 @@
                 <c:pt idx="3">
                   <c:v>Entrega</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Medición y Monitoreo</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$14:$D$18</c:f>
+              <c:f>Resumen!$D$14:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1373,9 +1321,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1389,11 +1334,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="97077888"/>
-        <c:axId val="108020480"/>
+        <c:axId val="120217984"/>
+        <c:axId val="120219520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97077888"/>
+        <c:axId val="120217984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,14 +1379,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108020480"/>
+        <c:crossAx val="120219520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108020480"/>
+        <c:axId val="120219520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1491,7 +1436,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97077888"/>
+        <c:crossAx val="120217984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,7 +1478,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1602,9 +1547,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$22:$B$28</c:f>
+              <c:f>Resumen!$B$21:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Análisis de Requerimientos</c:v>
                 </c:pt>
@@ -1623,18 +1568,15 @@
                 <c:pt idx="5">
                   <c:v>Carta de Aceptación</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Reporte de Monitoreo</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$22:$D$28</c:f>
+              <c:f>Resumen!$D$21:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1653,9 +1595,6 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1667,11 +1606,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="108049152"/>
-        <c:axId val="108050688"/>
+        <c:axId val="120256384"/>
+        <c:axId val="120257920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108049152"/>
+        <c:axId val="120256384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,14 +1651,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108050688"/>
+        <c:crossAx val="120257920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108050688"/>
+        <c:axId val="120257920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1769,7 +1708,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108049152"/>
+        <c:crossAx val="120256384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,7 +1750,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1847,7 +1786,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1875,7 +1813,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$32:$B$34</c:f>
+              <c:f>Resumen!$B$30:$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1892,7 +1830,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$32:$D$34</c:f>
+              <c:f>Resumen!$D$30:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1903,7 +1841,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,11 +1854,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="100878208"/>
-        <c:axId val="100879744"/>
+        <c:axId val="120560640"/>
+        <c:axId val="120570624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100878208"/>
+        <c:axId val="120560640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +1899,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100879744"/>
+        <c:crossAx val="120570624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100879744"/>
+        <c:axId val="120570624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2018,7 +1956,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100878208"/>
+        <c:crossAx val="120560640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2060,7 +1998,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2096,7 +2034,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2124,7 +2061,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$38:$B$40</c:f>
+              <c:f>Resumen!$B$36:$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2141,7 +2078,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$38:$D$40</c:f>
+              <c:f>Resumen!$D$36:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2152,7 +2089,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,11 +2102,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="100891648"/>
-        <c:axId val="100905728"/>
+        <c:axId val="120099200"/>
+        <c:axId val="120100736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100891648"/>
+        <c:axId val="120099200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,14 +2147,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100905728"/>
+        <c:crossAx val="120100736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100905728"/>
+        <c:axId val="120100736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2267,7 +2204,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100891648"/>
+        <c:crossAx val="120099200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2309,7 +2246,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2327,7 +2264,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2351,13 +2288,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2381,13 +2318,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2411,13 +2348,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2617,8 +2554,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>439399</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3087349</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>853464</xdr:rowOff>
     </xdr:to>
@@ -2966,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3008,10 +2945,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
@@ -3019,10 +2956,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
@@ -3044,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="82"/>
@@ -3054,7 +2991,7 @@
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="B12" s="73" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -3122,282 +3059,254 @@
         <v>0</v>
       </c>
       <c r="D17" s="10" t="e">
-        <f>COUNTIF((Procesos!D33:D36),"x")/(COUNTIF((Procesos!D33:D36),"x")+COUNTIF((Procesos!D33:D36),"x"))</f>
+        <f>COUNTIF((Procesos!D33:D36),"x")/(COUNTIF((Procesos!D33:D36),"x")+COUNTIF((Procesos!E33:E36),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B18" s="8" t="str">
-        <f>Procesos!B38</f>
-        <v>Medición y Monitoreo</v>
-      </c>
-      <c r="C18" s="9">
-        <f>COUNTA(Procesos!D39:D43)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="e">
-        <f>COUNTIF((Procesos!D39:D43),"x")/(COUNTIF((Procesos!D39:D43),"x")+COUNTIF((Procesos!D39:D43),"x"))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="19" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B19" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+    </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
+      <c r="B20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
+      <c r="B21" s="8" t="str">
+        <f>Productos!B5</f>
+        <v>Análisis de Requerimientos</v>
+      </c>
+      <c r="C21" s="9">
+        <f>COUNTA(Productos!D6:D16)</f>
+        <v>11</v>
+      </c>
+      <c r="D21" s="10">
+        <f>COUNTIF((Productos!D6:D16),"x")/(COUNTIF((Productos!D6:D16),"x")+COUNTIF((Productos!E6:E16),"x"))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="16.5" customHeight="1">
       <c r="B22" s="8" t="str">
-        <f>Productos!B5</f>
-        <v>Análisis de Requerimientos</v>
+        <f>Productos!B18</f>
+        <v>Estimación</v>
       </c>
       <c r="C22" s="9">
-        <f>COUNTA(Productos!D6:D16)</f>
-        <v>11</v>
+        <f>COUNTA(Productos!D19:D31)</f>
+        <v>13</v>
       </c>
       <c r="D22" s="10">
-        <f>COUNTIF((Productos!D6:D16),"x")/(COUNTIF((Productos!D6:D16),"x")+COUNTIF((Productos!E6:E16),"x"))</f>
+        <f>COUNTIF((Productos!D19:D31),"x")/(COUNTIF((Productos!D19:D31),"x")+COUNTIF((Productos!E19:E31),"x"))</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="16.5" customHeight="1">
       <c r="B23" s="8" t="str">
-        <f>Productos!B18</f>
-        <v>Estimación</v>
+        <f>Productos!B33</f>
+        <v>Propuesta</v>
       </c>
       <c r="C23" s="9">
-        <f>COUNTA(Productos!D19:D31)</f>
-        <v>13</v>
+        <f>COUNTA(Productos!D34:D44)</f>
+        <v>11</v>
       </c>
       <c r="D23" s="10">
-        <f>COUNTIF((Productos!D19:D31),"x")/(COUNTIF((Productos!D19:D31),"x")+COUNTIF((Productos!E19:E31),"x"))</f>
+        <f>COUNTIF((Productos!D34:D44),"x")/(COUNTIF((Productos!D34:D44),"x")+COUNTIF((Productos!E34:E44),"x"))</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1">
       <c r="B24" s="8" t="str">
-        <f>Productos!B33</f>
-        <v>Propuesta</v>
+        <f>Productos!B46</f>
+        <v>Plan de Proyecto</v>
       </c>
       <c r="C24" s="9">
-        <f>COUNTA(Productos!D34:D44)</f>
-        <v>11</v>
+        <f>COUNTA(Productos!D47:D62)</f>
+        <v>16</v>
       </c>
       <c r="D24" s="10">
-        <f>COUNTIF((Productos!D34:D44),"x")/(COUNTIF((Productos!D34:D44),"x")+COUNTIF((Productos!E34:E44),"x"))</f>
+        <f>COUNTIF((Productos!D47:D62),"x")/(COUNTIF((Productos!D47:D62),"x")+COUNTIF((Productos!E47:E62),"x"))</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1">
       <c r="B25" s="8" t="str">
-        <f>Productos!B46</f>
-        <v>Plan de Proyecto</v>
+        <f>Productos!B64</f>
+        <v>Plan de Pruebas</v>
       </c>
       <c r="C25" s="9">
-        <f>COUNTA(Productos!D47:D62)</f>
-        <v>16</v>
+        <f>COUNTA(Productos!D65:D69)</f>
+        <v>5</v>
       </c>
       <c r="D25" s="10">
-        <f>COUNTIF((Productos!D47:D62),"x")/(COUNTIF((Productos!D47:D62),"x")+COUNTIF((Productos!E47:E62),"x"))</f>
+        <f>COUNTIF((Productos!D65:D69),"x")/(COUNTIF((Productos!D65:D69),"x")+COUNTIF((Productos!E65:E69),"x"))</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1">
       <c r="B26" s="8" t="str">
-        <f>Productos!B64</f>
-        <v>Plan de Pruebas</v>
-      </c>
-      <c r="C26" s="9">
-        <f>COUNTA(Productos!D65:D69)</f>
-        <v>5</v>
-      </c>
-      <c r="D26" s="10">
-        <f>COUNTIF((Productos!D65:D69),"x")/(COUNTIF((Productos!D65:D69),"x")+COUNTIF((Productos!E65:E69),"x"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B27" s="8" t="str">
         <f>Productos!B71</f>
         <v>Carta de Aceptación</v>
       </c>
-      <c r="C27" s="9">
-        <f>COUNTA(Productos!D72:D75)</f>
+      <c r="C26" s="9">
+        <f>COUNTA(Productos!D72:D74)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="10" t="e">
-        <f>COUNTIF((Productos!D72:D75),"x")/(COUNTIF((Productos!D72:D75),"x")+COUNTIF((Productos!E72:E75),"x"))</f>
+      <c r="D26" s="10" t="e">
+        <f>COUNTIF((Productos!D72:D74),"x")/(COUNTIF((Productos!D72:D74),"x")+COUNTIF((Productos!E72:E74),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B28" s="8" t="str">
-        <f>Productos!B77</f>
-        <v>Reporte de Monitoreo</v>
-      </c>
-      <c r="C28" s="9">
-        <f>COUNTA(Productos!D78:D84)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="10" t="e">
-        <f>COUNTIF((Productos!D78:D84),"x")/(COUNTIF((Productos!D78:D84),"x")+COUNTIF((Productos!E78:E84),"x"))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="19.5" customHeight="1"/>
-    <row r="30" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="B30" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
+    <row r="27" spans="2:8" ht="19.5" customHeight="1"/>
+    <row r="28" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="B28" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:8" s="3" customFormat="1" ht="16.5">
+      <c r="B30" s="8" t="str">
+        <f>[1]Fisica!B4</f>
+        <v>Elementos de Configuración</v>
+      </c>
+      <c r="C30" s="12">
+        <f>COUNTA(Física!D6:D8)</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="10">
+        <f>COUNTIF((Física!D6:D8),"x")/(COUNTIF((Física!D6:D8),"x")+COUNTIF((Física!E6:E8),"x"))</f>
+        <v>1</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B31" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>6</v>
+    </row>
+    <row r="31" spans="2:8" s="3" customFormat="1" ht="16.5">
+      <c r="B31" s="8" t="str">
+        <f>[1]Fisica!B9</f>
+        <v>Línea Base</v>
+      </c>
+      <c r="C31" s="12">
+        <f>COUNTA(Física!D11:D14)</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="10">
+        <f>COUNTIF((Física!D11:D14),"x")/(COUNTIF((Física!D11:D14),"x")+COUNTIF((Física!E11:E14),"x"))</f>
+        <v>1</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="2:8" s="3" customFormat="1" ht="16.5">
       <c r="B32" s="8" t="str">
-        <f>[1]Fisica!B4</f>
-        <v>Elementos de Configuración</v>
-      </c>
-      <c r="C32" s="12">
-        <f>COUNTA(Física!D6:D8)</f>
-        <v>2</v>
-      </c>
-      <c r="D32" s="10">
-        <f>COUNTIF((Física!D6:D8),"x")/(COUNTIF((Física!D6:D8),"x")+COUNTIF((Física!E6:E8),"x"))</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B33" s="8" t="str">
-        <f>[1]Fisica!B9</f>
-        <v>Línea Base</v>
-      </c>
-      <c r="C33" s="12">
-        <f>COUNTA(Física!D11:D14)</f>
-        <v>3</v>
-      </c>
-      <c r="D33" s="10">
-        <f>COUNTIF((Física!D11:D14),"x")/(COUNTIF((Física!D11:D14),"x")+COUNTIF((Física!E11:E14),"x"))</f>
-        <v>1</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B34" s="8" t="str">
         <f>[1]Fisica!B15</f>
         <v>Control de Cambios</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C32" s="12">
         <f>COUNTA(Física!D17)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
         <f>COUNTIF((Física!D17:D17),"x")/(COUNTIF((Física!D17:D17),"x")+COUNTIF((Física!E17:E17),"x"))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" s="3" customFormat="1"/>
-    <row r="36" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B36" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" s="3" customFormat="1"/>
+    <row r="34" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B34" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" s="3" customFormat="1" ht="16.5">
+      <c r="B35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" s="3" customFormat="1" ht="16.5">
+      <c r="B36" s="11" t="str">
+        <f>[1]Funcional!B4</f>
+        <v>Líneas Base</v>
+      </c>
+      <c r="C36" s="9">
+        <f>COUNTA(Funcional!D6:D9)</f>
+        <v>4</v>
+      </c>
+      <c r="D36" s="10">
+        <f>COUNTIF((Funcional!D6:D9),"x")/(COUNTIF((Funcional!D6:D9),"x")+COUNTIF((Funcional!E6:E9),"x"))</f>
+        <v>1</v>
+      </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="11" t="str">
+        <f>[1]Funcional!B10</f>
+        <v>Entregables</v>
+      </c>
+      <c r="C37" s="9">
+        <f>COUNTA(Funcional!D12:D19)</f>
         <v>5</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="4"/>
+      <c r="D37" s="10">
+        <f>COUNTIF((Funcional!D12:D19),"x")/(COUNTIF((Funcional!D12:D19),"x")+COUNTIF((Funcional!E12:E19),"x"))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="2:5" s="3" customFormat="1" ht="16.5">
       <c r="B38" s="11" t="str">
-        <f>[1]Funcional!B4</f>
-        <v>Líneas Base</v>
-      </c>
-      <c r="C38" s="9">
-        <f>COUNTA(Funcional!D6:D9)</f>
-        <v>4</v>
-      </c>
-      <c r="D38" s="10">
-        <f>COUNTIF((Funcional!D6:D9),"x")/(COUNTIF((Funcional!D6:D9),"x")+COUNTIF((Funcional!E6:E9),"x"))</f>
-        <v>1</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B39" s="11" t="str">
-        <f>[1]Funcional!B10</f>
-        <v>Entregables</v>
-      </c>
-      <c r="C39" s="9">
-        <f>COUNTA(Funcional!D12:D19)</f>
-        <v>5</v>
-      </c>
-      <c r="D39" s="10">
-        <f>COUNTIF((Funcional!D12:D19),"x")/(COUNTIF((Funcional!D12:D19),"x")+COUNTIF((Funcional!E12:E19),"x"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B40" s="11" t="str">
         <f>[1]Funcional!B20</f>
         <v>Control de Cambios</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C38" s="9">
         <f>COUNTA(Funcional!D22:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="10" t="e">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10">
         <f>COUNTIF((Funcional!D22:D26),"x")/(COUNTIF((Funcional!D22:D26),"x")+COUNTIF((Funcional!E22:E26),"x"))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="3" customFormat="1"/>
-    <row r="42" spans="2:5" s="3" customFormat="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="3" customFormat="1"/>
+    <row r="40" spans="2:5" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="C6:F6"/>
@@ -3414,9 +3323,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G44"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3485,7 +3394,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -3500,7 +3409,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -3512,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -3530,7 +3439,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -3542,10 +3451,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3557,10 +3466,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -3569,7 +3478,7 @@
     <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
       <c r="B13" s="89" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C13" s="90"/>
       <c r="D13" s="87"/>
@@ -3582,10 +3491,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3597,10 +3506,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -3612,10 +3521,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3627,10 +3536,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -3642,10 +3551,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3657,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -3672,10 +3581,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -3684,7 +3593,7 @@
     <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
       <c r="B22" s="89" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" s="90"/>
       <c r="D22" s="87"/>
@@ -3697,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -3710,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -3723,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -3736,7 +3645,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -3749,7 +3658,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -3762,7 +3671,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -3775,7 +3684,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -3788,7 +3697,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -3798,7 +3707,7 @@
     <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
       <c r="B32" s="88" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C32" s="88"/>
       <c r="D32" s="19"/>
@@ -3811,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -3824,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -3837,7 +3746,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -3850,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -3858,90 +3767,13 @@
       <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5"/>
-    <row r="38" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B38" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-    </row>
-    <row r="39" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B39" s="20">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B40" s="20">
-        <f>B39+1</f>
-        <v>2</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B41" s="20">
-        <f t="shared" ref="B41:B43" si="4">B40+1</f>
-        <v>3</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B42" s="20">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B43" s="20">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
+    <row r="38" spans="2:7" s="24" customFormat="1" ht="16.5">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="13">
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
@@ -3955,13 +3787,8 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23:F30">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>IF($D$32,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C30">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="D23:F30 C28:C30">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF($D$32,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3973,9 +3800,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -4032,7 +3859,7 @@
     <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="28"/>
       <c r="B5" s="87" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
@@ -4046,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -4062,10 +3889,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -4078,10 +3905,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
@@ -4094,10 +3921,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
@@ -4110,10 +3937,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -4126,10 +3953,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -4142,10 +3969,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -4158,10 +3985,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -4174,10 +4001,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -4190,10 +4017,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -4206,10 +4033,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -4241,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
@@ -4257,10 +4084,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -4273,10 +4100,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -4289,10 +4116,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -4305,10 +4132,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -4321,10 +4148,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -4337,10 +4164,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -4353,10 +4180,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -4369,10 +4196,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -4385,10 +4212,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -4401,10 +4228,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -4417,10 +4244,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
@@ -4433,10 +4260,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -4454,7 +4281,7 @@
     <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="43"/>
       <c r="B33" s="87" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C33" s="87"/>
       <c r="D33" s="71"/>
@@ -4468,10 +4295,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -4484,10 +4311,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -4500,10 +4327,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -4516,10 +4343,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -4532,10 +4359,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -4548,10 +4375,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -4567,7 +4394,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -4583,7 +4410,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
@@ -4596,10 +4423,10 @@
         <v>9</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -4612,10 +4439,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -4628,10 +4455,10 @@
         <v>11</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -4649,7 +4476,7 @@
     <row r="46" spans="1:7" s="44" customFormat="1" ht="18.75" customHeight="1">
       <c r="A46" s="43"/>
       <c r="B46" s="87" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C46" s="87"/>
       <c r="D46" s="87"/>
@@ -4663,10 +4490,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -4679,10 +4506,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -4695,10 +4522,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
@@ -4711,10 +4538,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -4730,7 +4557,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -4743,10 +4570,10 @@
         <v>6</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -4759,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
@@ -4778,7 +4605,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -4794,7 +4621,7 @@
         <v>24</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -4810,7 +4637,7 @@
         <v>26</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -4826,7 +4653,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
@@ -4842,7 +4669,7 @@
         <v>27</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -4858,7 +4685,7 @@
         <v>28</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
@@ -4874,7 +4701,7 @@
         <v>29</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -4890,7 +4717,7 @@
         <v>30</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
@@ -4906,7 +4733,7 @@
         <v>31</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -4924,7 +4751,7 @@
     <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="43"/>
       <c r="B64" s="87" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C64" s="87"/>
       <c r="D64" s="87"/>
@@ -4938,10 +4765,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
@@ -4954,10 +4781,10 @@
         <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
@@ -4970,10 +4797,10 @@
         <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -4986,10 +4813,10 @@
         <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -5002,10 +4829,10 @@
         <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
@@ -5023,7 +4850,7 @@
     <row r="71" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A71" s="43"/>
       <c r="B71" s="87" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C71" s="87"/>
       <c r="D71" s="87"/>
@@ -5051,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -5061,11 +4888,11 @@
     <row r="74" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A74" s="32"/>
       <c r="B74" s="48">
-        <f t="shared" ref="B74:B75" si="5">B73+1</f>
+        <f t="shared" ref="B74" si="5">B73+1</f>
         <v>3</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -5074,136 +4901,18 @@
     </row>
     <row r="75" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A75" s="32"/>
-      <c r="B75" s="48">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
-    </row>
-    <row r="76" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A76" s="32"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-    </row>
-    <row r="77" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A77" s="43"/>
-      <c r="B77" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-    </row>
-    <row r="78" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="B78" s="46">
-        <v>1</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
-    </row>
-    <row r="79" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="B79" s="46">
-        <f>B78+1</f>
-        <v>2</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-    </row>
-    <row r="80" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="B80" s="46">
-        <f t="shared" ref="B80:B84" si="6">B79+1</f>
-        <v>3</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-    </row>
-    <row r="81" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B81" s="46">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23"/>
-    </row>
-    <row r="82" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B82" s="46">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
-    </row>
-    <row r="83" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B83" s="46">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
-    </row>
-    <row r="84" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B84" s="46">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="C85" s="31"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="C76" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
+  <mergeCells count="20">
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="F71:G71"/>
@@ -5225,7 +4934,7 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B3:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C85">
+  <conditionalFormatting sqref="C76">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!,TRUE,FALSE)</formula>
     </cfRule>
@@ -5240,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5299,7 +5008,7 @@
     </row>
     <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="87" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" s="87"/>
       <c r="D5" s="91"/>
@@ -5317,10 +5026,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -5339,10 +5048,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -5361,12 +5070,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="57"/>
@@ -5392,7 +5101,7 @@
     </row>
     <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="B10" s="87" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
@@ -5410,10 +5119,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -5432,10 +5141,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -5454,10 +5163,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -5476,12 +5185,12 @@
         <v>7</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="57"/>
@@ -5507,7 +5216,7 @@
     </row>
     <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="B16" s="87" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" s="87"/>
       <c r="D16" s="87"/>
@@ -5525,13 +5234,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="38"/>
+        <v>42</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>141</v>
+      </c>
       <c r="E17" s="39"/>
-      <c r="F17" s="39" t="s">
-        <v>156</v>
-      </c>
+      <c r="F17" s="39"/>
       <c r="G17" s="40"/>
       <c r="H17" s="57"/>
       <c r="I17" s="58">
@@ -5576,8 +5285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -5586,7 +5295,7 @@
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="61.85546875" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.5703125" style="1"/>
-    <col min="7" max="7" width="39.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -5621,7 +5330,7 @@
     </row>
     <row r="5" spans="2:7" ht="15.75">
       <c r="B5" s="87" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="87"/>
       <c r="D5" s="91"/>
@@ -5634,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
@@ -5648,10 +5357,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
@@ -5662,10 +5371,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
@@ -5676,10 +5385,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -5695,7 +5404,7 @@
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1">
       <c r="B11" s="87" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="92"/>
@@ -5708,10 +5417,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
@@ -5722,10 +5431,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
@@ -5736,12 +5445,12 @@
         <v>3</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G14" s="68"/>
     </row>
@@ -5750,10 +5459,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -5764,12 +5473,12 @@
         <v>5</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G16" s="68"/>
     </row>
@@ -5778,12 +5487,12 @@
         <v>6</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G17" s="68"/>
     </row>
@@ -5793,10 +5502,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E18" s="67"/>
       <c r="F18" s="67"/>
@@ -5808,10 +5517,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
@@ -5827,7 +5536,7 @@
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="87" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C21" s="87"/>
       <c r="D21" s="87"/>
@@ -5840,13 +5549,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="69"/>
+        <v>55</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>141</v>
+      </c>
       <c r="E22" s="69"/>
-      <c r="F22" s="69" t="s">
-        <v>156</v>
-      </c>
+      <c r="F22" s="69"/>
       <c r="G22" s="70"/>
     </row>
     <row r="23" spans="2:7" s="33" customFormat="1" ht="16.5">
@@ -5855,29 +5564,31 @@
         <v>2</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
-        <v>156</v>
-      </c>
+      <c r="F23" s="22"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="24" spans="2:7" s="33" customFormat="1" ht="15.75" customHeight="1">
       <c r="B24" s="20">
         <f>+B23+1</f>
         <v>3</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="25" spans="2:7" s="33" customFormat="1" ht="33">
       <c r="B25" s="20">
@@ -5885,13 +5596,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
-        <v>156</v>
-      </c>
+      <c r="F25" s="22"/>
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="2:7" s="33" customFormat="1" ht="16.5">
@@ -5900,13 +5611,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
-        <v>156</v>
-      </c>
+      <c r="F26" s="22"/>
       <c r="G26" s="23"/>
     </row>
   </sheetData>

--- a/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
+++ b/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="149">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -1259,7 +1259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1318,7 +1317,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1334,11 +1333,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="120217984"/>
-        <c:axId val="120219520"/>
+        <c:axId val="109609344"/>
+        <c:axId val="109610880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120217984"/>
+        <c:axId val="109609344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,14 +1378,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120219520"/>
+        <c:crossAx val="109610880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120219520"/>
+        <c:axId val="109610880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1436,7 +1435,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120217984"/>
+        <c:crossAx val="109609344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1478,7 +1477,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1519,7 +1518,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1606,11 +1604,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="120256384"/>
-        <c:axId val="120257920"/>
+        <c:axId val="109905792"/>
+        <c:axId val="109907328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120256384"/>
+        <c:axId val="109905792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,14 +1649,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120257920"/>
+        <c:crossAx val="109907328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120257920"/>
+        <c:axId val="109907328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1708,7 +1706,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120256384"/>
+        <c:crossAx val="109905792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1750,7 +1748,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1854,11 +1852,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="120560640"/>
-        <c:axId val="120570624"/>
+        <c:axId val="109943808"/>
+        <c:axId val="109953792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120560640"/>
+        <c:axId val="109943808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,14 +1897,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120570624"/>
+        <c:crossAx val="109953792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120570624"/>
+        <c:axId val="109953792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1956,7 +1954,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120560640"/>
+        <c:crossAx val="109943808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1998,7 +1996,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2102,11 +2100,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="120099200"/>
-        <c:axId val="120100736"/>
+        <c:axId val="109482368"/>
+        <c:axId val="109483904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120099200"/>
+        <c:axId val="109482368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,14 +2145,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120100736"/>
+        <c:crossAx val="109483904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120100736"/>
+        <c:axId val="109483904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2204,7 +2202,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120099200"/>
+        <c:crossAx val="109482368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2246,7 +2244,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2905,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2970,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="84">
-        <v>42474</v>
+        <v>42494</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
@@ -3042,11 +3040,11 @@
       </c>
       <c r="C16" s="9">
         <f>COUNTA(Procesos!D23:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="10" t="e">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
         <f>COUNTIF((Procesos!D23:D30),"x")/(COUNTIF((Procesos!D23:D30),"x")+COUNTIF((Procesos!E23:E30),"x"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1">
@@ -3325,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3608,7 +3606,9 @@
       <c r="C23" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
@@ -3621,7 +3621,9 @@
       <c r="C24" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
@@ -3634,7 +3636,9 @@
       <c r="C25" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="23"/>
@@ -3647,7 +3651,9 @@
       <c r="C26" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="23"/>
@@ -3660,7 +3666,9 @@
       <c r="C27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="23"/>
@@ -3673,7 +3681,9 @@
       <c r="C28" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23"/>
@@ -3684,9 +3694,11 @@
         <v>7</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="22"/>
+        <v>83</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
@@ -3697,7 +3709,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -3800,7 +3812,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
@@ -4899,17 +4911,8 @@
       <c r="F74" s="22"/>
       <c r="G74" s="23"/>
     </row>
-    <row r="75" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A75" s="32"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="C76" s="31"/>
+    <row r="75" spans="1:7">
+      <c r="C75" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4934,7 +4937,7 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B3:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C76">
+  <conditionalFormatting sqref="C75">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!,TRUE,FALSE)</formula>
     </cfRule>
@@ -4950,7 +4953,7 @@
   <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5285,7 +5288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>

--- a/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
+++ b/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilberto Amaro\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +36,7 @@
     <author>.</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="149">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -512,8 +517,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1171,22 +1176,22 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,7 +1236,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-MX"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1259,6 +1274,8 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1267,11 +1284,13 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1284,6 +1303,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Resumen!$B$14:$B$17</c:f>
@@ -1331,19 +1351,29 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="109609344"/>
-        <c:axId val="109610880"/>
+        <c:axId val="118974000"/>
+        <c:axId val="118974560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109609344"/>
+        <c:axId val="118974000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1378,18 +1408,20 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109610880"/>
+        <c:crossAx val="118974560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109610880"/>
+        <c:axId val="118974560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1407,6 +1439,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1435,7 +1468,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109609344"/>
+        <c:crossAx val="118974000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1449,6 +1482,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1485,7 +1519,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-MX"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1518,6 +1562,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1526,11 +1571,13 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1543,6 +1590,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Resumen!$B$21:$B$26</c:f>
@@ -1602,19 +1650,29 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="109905792"/>
-        <c:axId val="109907328"/>
+        <c:axId val="193834992"/>
+        <c:axId val="193835552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109905792"/>
+        <c:axId val="193834992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1649,18 +1707,20 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109907328"/>
+        <c:crossAx val="193835552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109907328"/>
+        <c:axId val="193835552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1678,6 +1738,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1706,7 +1767,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109905792"/>
+        <c:crossAx val="193834992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1720,6 +1781,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1756,7 +1818,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-MX"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1784,6 +1856,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1792,11 +1865,13 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1809,6 +1884,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Resumen!$B$30:$B$32</c:f>
@@ -1850,19 +1926,29 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="109943808"/>
-        <c:axId val="109953792"/>
+        <c:axId val="117626144"/>
+        <c:axId val="192797200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109943808"/>
+        <c:axId val="117626144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1897,18 +1983,20 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109953792"/>
+        <c:crossAx val="192797200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109953792"/>
+        <c:axId val="192797200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1926,6 +2014,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1954,7 +2043,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109943808"/>
+        <c:crossAx val="117626144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1968,6 +2057,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2004,7 +2094,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-MX"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2032,6 +2132,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2040,11 +2141,13 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2057,6 +2160,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Resumen!$B$36:$B$38</c:f>
@@ -2098,19 +2202,29 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="109482368"/>
-        <c:axId val="109483904"/>
+        <c:axId val="198275440"/>
+        <c:axId val="198276000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109482368"/>
+        <c:axId val="198275440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2145,18 +2259,20 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109483904"/>
+        <c:crossAx val="198276000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109483904"/>
+        <c:axId val="198276000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2174,6 +2290,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2202,7 +2319,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109482368"/>
+        <c:crossAx val="198275440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2216,6 +2333,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2586,7 +2704,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Inf. Gral."/>
@@ -2893,21 +3011,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2920,9 +3038,9 @@
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="67.5" customHeight="1"/>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:6" ht="21" customHeight="1">
+    <row r="1" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +3050,7 @@
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +3059,7 @@
       <c r="E5" s="77"/>
       <c r="F5" s="77"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>116</v>
       </c>
@@ -2952,7 +3070,7 @@
       <c r="E6" s="79"/>
       <c r="F6" s="80"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>60</v>
       </c>
@@ -2963,7 +3081,7 @@
       <c r="E7" s="82"/>
       <c r="F7" s="83"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -2974,7 +3092,7 @@
       <c r="E8" s="82"/>
       <c r="F8" s="83"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -2985,16 +3103,16 @@
       <c r="E9" s="82"/>
       <c r="F9" s="83"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="73" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
@@ -3005,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="str">
         <f>Procesos!B5</f>
         <v>Requerimientos</v>
@@ -3019,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="str">
         <f>Procesos!B13</f>
         <v>Planeación</v>
@@ -3033,21 +3151,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="str">
         <f>Procesos!B22</f>
         <v>Desarrollo</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTA(Procesos!D23:D30)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="10">
         <f>COUNTIF((Procesos!D23:D30),"x")/(COUNTIF((Procesos!D23:D30),"x")+COUNTIF((Procesos!E23:E30),"x"))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="16.5" customHeight="1">
+    <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="str">
         <f>Procesos!B32</f>
         <v>Entrega</v>
@@ -3061,15 +3179,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
-    <row r="19" spans="2:8" ht="16.5" customHeight="1">
+    <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="73" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
     </row>
-    <row r="20" spans="2:8" ht="16.5" customHeight="1">
+    <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
@@ -3080,7 +3198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="16.5" customHeight="1">
+    <row r="21" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="str">
         <f>Productos!B5</f>
         <v>Análisis de Requerimientos</v>
@@ -3094,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="16.5" customHeight="1">
+    <row r="22" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="str">
         <f>Productos!B18</f>
         <v>Estimación</v>
@@ -3108,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="16.5" customHeight="1">
+    <row r="23" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="str">
         <f>Productos!B33</f>
         <v>Propuesta</v>
@@ -3122,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="16.5" customHeight="1">
+    <row r="24" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="str">
         <f>Productos!B46</f>
         <v>Plan de Proyecto</v>
@@ -3136,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="16.5" customHeight="1">
+    <row r="25" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="str">
         <f>Productos!B64</f>
         <v>Plan de Pruebas</v>
@@ -3150,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="16.5" customHeight="1">
+    <row r="26" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="str">
         <f>Productos!B71</f>
         <v>Carta de Aceptación</v>
@@ -3164,8 +3282,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="19.5" customHeight="1"/>
-    <row r="28" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="27" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="74" t="s">
         <v>115</v>
       </c>
@@ -3176,7 +3294,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" s="3" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="2:8" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
         <v>4</v>
       </c>
@@ -3188,7 +3306,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:8" s="3" customFormat="1" ht="16.5">
+    <row r="30" spans="2:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="str">
         <f>[1]Fisica!B4</f>
         <v>Elementos de Configuración</v>
@@ -3203,7 +3321,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:8" s="3" customFormat="1" ht="16.5">
+    <row r="31" spans="2:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="str">
         <f>[1]Fisica!B9</f>
         <v>Línea Base</v>
@@ -3218,7 +3336,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:8" s="3" customFormat="1" ht="16.5">
+    <row r="32" spans="2:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="str">
         <f>[1]Fisica!B15</f>
         <v>Control de Cambios</v>
@@ -3233,8 +3351,8 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" s="3" customFormat="1"/>
-    <row r="34" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="33" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="73" t="s">
         <v>8</v>
       </c>
@@ -3242,7 +3360,7 @@
       <c r="D34" s="73"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="2:5" s="3" customFormat="1" ht="16.5">
+    <row r="35" spans="2:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>4</v>
       </c>
@@ -3254,7 +3372,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="2:5" s="3" customFormat="1" ht="16.5">
+    <row r="36" spans="2:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="str">
         <f>[1]Funcional!B4</f>
         <v>Líneas Base</v>
@@ -3269,7 +3387,7 @@
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="2:5" s="3" customFormat="1" ht="16.5">
+    <row r="37" spans="2:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="str">
         <f>[1]Funcional!B10</f>
         <v>Entregables</v>
@@ -3283,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:5" s="3" customFormat="1" ht="16.5">
+    <row r="38" spans="2:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="str">
         <f>[1]Funcional!B20</f>
         <v>Control de Cambios</v>
@@ -3297,8 +3415,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="3" customFormat="1"/>
-    <row r="40" spans="2:5" s="3" customFormat="1"/>
+    <row r="39" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B12:D12"/>
@@ -3320,14 +3438,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
@@ -3337,8 +3455,8 @@
     <col min="8" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
-    <row r="2" spans="2:7">
+    <row r="1" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="16"/>
@@ -3346,23 +3464,23 @@
       <c r="F2" s="16"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="85" t="s">
+    <row r="3" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+    <row r="4" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -3372,19 +3490,19 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85"/>
-    </row>
-    <row r="5" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="87" t="s">
+      <c r="G4" s="89"/>
+    </row>
+    <row r="5" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-    </row>
-    <row r="6" spans="2:7" s="24" customFormat="1" ht="16.5">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+    </row>
+    <row r="6" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" s="20">
         <v>1</v>
       </c>
@@ -3398,7 +3516,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="7" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" s="20">
         <f>B6+1</f>
         <v>2</v>
@@ -3413,7 +3531,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="8" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" s="20">
         <f t="shared" ref="B8:B11" si="0">B7+1</f>
         <v>3</v>
@@ -3428,7 +3546,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="9" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3443,7 +3561,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="10" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3458,7 +3576,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="11" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3473,18 +3591,18 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
-    <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="89" t="s">
+    <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-    </row>
-    <row r="14" spans="2:7" s="24" customFormat="1" ht="16.5">
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+    </row>
+    <row r="14" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" s="20">
         <v>1</v>
       </c>
@@ -3498,7 +3616,7 @@
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="15" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B15" s="20">
         <f>B14+1</f>
         <v>2</v>
@@ -3513,7 +3631,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="16" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" s="20">
         <f t="shared" ref="B16:B20" si="1">B15+1</f>
         <v>3</v>
@@ -3528,7 +3646,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="17" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3543,7 +3661,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="18" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3558,7 +3676,7 @@
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="19" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B19" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3573,7 +3691,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="20" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B20" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3588,18 +3706,18 @@
       <c r="F20" s="22"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
-    <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="89" t="s">
+    <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-    </row>
-    <row r="23" spans="2:7" s="24" customFormat="1" ht="16.5">
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+    </row>
+    <row r="23" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B23" s="20">
         <v>1</v>
       </c>
@@ -3613,7 +3731,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="24" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B24" s="20">
         <f>+B23+1</f>
         <v>2</v>
@@ -3628,7 +3746,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="25" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B25" s="20">
         <f>+B24+1</f>
         <v>3</v>
@@ -3643,7 +3761,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="26" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B26" s="20">
         <f t="shared" ref="B26:B30" si="2">+B25+1</f>
         <v>4</v>
@@ -3658,7 +3776,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="27" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B27" s="20">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3673,7 +3791,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="28" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B28" s="20">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3688,7 +3806,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="23"/>
     </row>
-    <row r="29" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="29" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B29" s="20">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3703,7 +3821,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="30" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B30" s="20">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3711,23 +3829,25 @@
       <c r="C30" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
-    <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B32" s="88" t="s">
+    <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="88"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="33" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B33" s="20">
         <v>1</v>
       </c>
@@ -3739,7 +3859,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="34" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B34" s="20">
         <f>+B33+1</f>
         <v>2</v>
@@ -3752,7 +3872,7 @@
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="35" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B35" s="20">
         <f t="shared" ref="B35:B36" si="3">+B34+1</f>
         <v>3</v>
@@ -3765,7 +3885,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="36" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B36" s="20">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3778,13 +3898,19 @@
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
     </row>
-    <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5"/>
-    <row r="38" spans="2:7" s="24" customFormat="1" ht="16.5">
+    <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:7" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -3792,12 +3918,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:F30 C28:C30">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
@@ -3811,14 +3931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="17" bestFit="1" customWidth="1"/>
@@ -3828,8 +3948,8 @@
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="67.5" customHeight="1"/>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="47"/>
       <c r="C2" s="15"/>
@@ -3838,25 +3958,25 @@
       <c r="F2" s="16"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
+    <row r="3" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
+    <row r="4" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -3866,20 +3986,20 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85"/>
-    </row>
-    <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G4" s="89"/>
+    </row>
+    <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-    </row>
-    <row r="6" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+    </row>
+    <row r="6" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="45">
         <v>1</v>
@@ -3894,7 +4014,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="7" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="46">
         <f>+B6+1</f>
@@ -3910,7 +4030,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="8" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="46">
         <f t="shared" ref="B8:B16" si="0">+B7+1</f>
@@ -3926,7 +4046,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="40"/>
     </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="46">
         <f t="shared" si="0"/>
@@ -3942,7 +4062,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="40"/>
     </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="10" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="46">
         <f t="shared" si="0"/>
@@ -3958,7 +4078,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="40"/>
     </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="11" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="46">
         <f t="shared" si="0"/>
@@ -3974,7 +4094,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="46">
         <f t="shared" si="0"/>
@@ -3990,7 +4110,7 @@
       <c r="F12" s="39"/>
       <c r="G12" s="40"/>
     </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="46">
         <f t="shared" si="0"/>
@@ -4006,7 +4126,7 @@
       <c r="F13" s="39"/>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="33">
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="46">
         <f t="shared" si="0"/>
@@ -4022,7 +4142,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="18.75" customHeight="1">
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="46">
         <f t="shared" si="0"/>
@@ -4038,7 +4158,7 @@
       <c r="F15" s="39"/>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="46">
         <f t="shared" si="0"/>
@@ -4054,7 +4174,7 @@
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="48"/>
       <c r="C17" s="41"/>
@@ -4063,18 +4183,18 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+    <row r="18" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-    </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+    </row>
+    <row r="19" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="46">
         <v>1</v>
@@ -4089,7 +4209,7 @@
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="46">
         <f>B19+1</f>
@@ -4105,7 +4225,7 @@
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="46">
         <f t="shared" ref="B21:B31" si="1">B20+1</f>
@@ -4121,7 +4241,7 @@
       <c r="F21" s="39"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="46">
         <f t="shared" si="1"/>
@@ -4137,7 +4257,7 @@
       <c r="F22" s="39"/>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="46">
         <f t="shared" si="1"/>
@@ -4153,7 +4273,7 @@
       <c r="F23" s="39"/>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="24" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="46">
         <f t="shared" si="1"/>
@@ -4169,7 +4289,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="25" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
       <c r="B25" s="46">
         <f t="shared" si="1"/>
@@ -4185,7 +4305,7 @@
       <c r="F25" s="39"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="26" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="46">
         <f t="shared" si="1"/>
@@ -4201,7 +4321,7 @@
       <c r="F26" s="39"/>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="46">
         <f t="shared" si="1"/>
@@ -4217,7 +4337,7 @@
       <c r="F27" s="39"/>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="28" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="46">
         <f t="shared" si="1"/>
@@ -4233,7 +4353,7 @@
       <c r="F28" s="39"/>
       <c r="G28" s="40"/>
     </row>
-    <row r="29" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="29" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="46">
         <f t="shared" si="1"/>
@@ -4249,7 +4369,7 @@
       <c r="F29" s="39"/>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="30" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="46">
         <f t="shared" si="1"/>
@@ -4265,7 +4385,7 @@
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
     </row>
-    <row r="31" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="31" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="46">
         <f t="shared" si="1"/>
@@ -4281,7 +4401,7 @@
       <c r="F31" s="39"/>
       <c r="G31" s="40"/>
     </row>
-    <row r="32" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="32" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="B32" s="48"/>
       <c r="C32" s="41"/>
@@ -4290,18 +4410,18 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+    <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="87"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-    </row>
-    <row r="34" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+    </row>
+    <row r="34" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="46">
         <v>1</v>
@@ -4316,7 +4436,7 @@
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="35" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="46">
         <f>+B34+1</f>
@@ -4332,7 +4452,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="36" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
       <c r="B36" s="46">
         <f t="shared" ref="B36:B44" si="2">+B35+1</f>
@@ -4348,7 +4468,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
     </row>
-    <row r="37" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="37" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
       <c r="B37" s="46">
         <f t="shared" si="2"/>
@@ -4364,7 +4484,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="38" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="46">
         <f t="shared" si="2"/>
@@ -4380,7 +4500,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
     </row>
-    <row r="39" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="39" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="B39" s="46">
         <f t="shared" si="2"/>
@@ -4396,7 +4516,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="40" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="46">
         <f t="shared" si="2"/>
@@ -4412,7 +4532,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
     </row>
-    <row r="41" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="41" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="32"/>
       <c r="B41" s="46">
         <f t="shared" si="2"/>
@@ -4428,7 +4548,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
     </row>
-    <row r="42" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="42" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
       <c r="B42" s="46">
         <f t="shared" si="2"/>
@@ -4444,7 +4564,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="43" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="B43" s="46">
         <f t="shared" si="2"/>
@@ -4460,7 +4580,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="44" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="46">
         <f t="shared" si="2"/>
@@ -4476,7 +4596,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="1:7" s="33" customFormat="1" ht="19.5" customHeight="1">
+    <row r="45" spans="1:7" s="33" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32"/>
       <c r="B45" s="48"/>
       <c r="C45" s="41"/>
@@ -4485,18 +4605,18 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:7" s="44" customFormat="1" ht="18.75" customHeight="1">
+    <row r="46" spans="1:7" s="44" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-    </row>
-    <row r="47" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+    </row>
+    <row r="47" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
       <c r="B47" s="46">
         <v>1</v>
@@ -4511,7 +4631,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="48" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="32"/>
       <c r="B48" s="46">
         <f>+B47+1</f>
@@ -4527,7 +4647,7 @@
       <c r="F48" s="22"/>
       <c r="G48" s="23"/>
     </row>
-    <row r="49" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="49" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="32"/>
       <c r="B49" s="46">
         <f>+B48+1</f>
@@ -4543,7 +4663,7 @@
       <c r="F49" s="22"/>
       <c r="G49" s="23"/>
     </row>
-    <row r="50" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="50" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="32"/>
       <c r="B50" s="46">
         <f>+B49+1</f>
@@ -4559,7 +4679,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="23"/>
     </row>
-    <row r="51" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="51" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="32"/>
       <c r="B51" s="46">
         <f t="shared" ref="B51:B62" si="3">+B50+1</f>
@@ -4575,7 +4695,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="52" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="32"/>
       <c r="B52" s="46">
         <f t="shared" si="3"/>
@@ -4591,7 +4711,7 @@
       <c r="F52" s="22"/>
       <c r="G52" s="23"/>
     </row>
-    <row r="53" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="53" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="32"/>
       <c r="B53" s="46">
         <f t="shared" si="3"/>
@@ -4607,7 +4727,7 @@
       <c r="F53" s="22"/>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="54" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
       <c r="B54" s="46">
         <f t="shared" si="3"/>
@@ -4623,7 +4743,7 @@
       <c r="F54" s="22"/>
       <c r="G54" s="23"/>
     </row>
-    <row r="55" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="55" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="32"/>
       <c r="B55" s="46">
         <f t="shared" si="3"/>
@@ -4639,7 +4759,7 @@
       <c r="F55" s="22"/>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="56" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="32"/>
       <c r="B56" s="46">
         <f t="shared" si="3"/>
@@ -4655,7 +4775,7 @@
       <c r="F56" s="22"/>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="57" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="32"/>
       <c r="B57" s="46">
         <f t="shared" si="3"/>
@@ -4671,7 +4791,7 @@
       <c r="F57" s="22"/>
       <c r="G57" s="23"/>
     </row>
-    <row r="58" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="58" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="32"/>
       <c r="B58" s="46">
         <f t="shared" si="3"/>
@@ -4687,7 +4807,7 @@
       <c r="F58" s="22"/>
       <c r="G58" s="23"/>
     </row>
-    <row r="59" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="59" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="32"/>
       <c r="B59" s="46">
         <f t="shared" si="3"/>
@@ -4703,7 +4823,7 @@
       <c r="F59" s="22"/>
       <c r="G59" s="23"/>
     </row>
-    <row r="60" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="60" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="32"/>
       <c r="B60" s="46">
         <f t="shared" si="3"/>
@@ -4719,7 +4839,7 @@
       <c r="F60" s="22"/>
       <c r="G60" s="23"/>
     </row>
-    <row r="61" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="61" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="32"/>
       <c r="B61" s="46">
         <f t="shared" si="3"/>
@@ -4735,7 +4855,7 @@
       <c r="F61" s="22"/>
       <c r="G61" s="23"/>
     </row>
-    <row r="62" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="62" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="32"/>
       <c r="B62" s="46">
         <f t="shared" si="3"/>
@@ -4751,7 +4871,7 @@
       <c r="F62" s="22"/>
       <c r="G62" s="23"/>
     </row>
-    <row r="63" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="63" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="32"/>
       <c r="B63" s="48"/>
       <c r="C63" s="41"/>
@@ -4760,18 +4880,18 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
     </row>
-    <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+    <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
-      <c r="B64" s="87" t="s">
+      <c r="B64" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-    </row>
-    <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+    </row>
+    <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="32"/>
       <c r="B65" s="48">
         <v>1</v>
@@ -4786,7 +4906,7 @@
       <c r="F65" s="22"/>
       <c r="G65" s="23"/>
     </row>
-    <row r="66" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="66" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
       <c r="B66" s="48">
         <f>B65+1</f>
@@ -4802,7 +4922,7 @@
       <c r="F66" s="22"/>
       <c r="G66" s="23"/>
     </row>
-    <row r="67" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="67" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
       <c r="B67" s="48">
         <f t="shared" ref="B67:B69" si="4">B66+1</f>
@@ -4818,7 +4938,7 @@
       <c r="F67" s="22"/>
       <c r="G67" s="23"/>
     </row>
-    <row r="68" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="68" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="32"/>
       <c r="B68" s="48">
         <f t="shared" si="4"/>
@@ -4834,7 +4954,7 @@
       <c r="F68" s="22"/>
       <c r="G68" s="23"/>
     </row>
-    <row r="69" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="69" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="32"/>
       <c r="B69" s="48">
         <f t="shared" si="4"/>
@@ -4850,7 +4970,7 @@
       <c r="F69" s="22"/>
       <c r="G69" s="23"/>
     </row>
-    <row r="70" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="70" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="48"/>
       <c r="C70" s="41"/>
@@ -4859,18 +4979,18 @@
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
     </row>
-    <row r="71" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+    <row r="71" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
-      <c r="B71" s="87" t="s">
+      <c r="B71" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-    </row>
-    <row r="72" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="C71" s="88"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+    </row>
+    <row r="72" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="32"/>
       <c r="B72" s="48">
         <v>1</v>
@@ -4883,7 +5003,7 @@
       <c r="F72" s="22"/>
       <c r="G72" s="23"/>
     </row>
-    <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="32"/>
       <c r="B73" s="48">
         <f>B72+1</f>
@@ -4897,7 +5017,7 @@
       <c r="F73" s="22"/>
       <c r="G73" s="23"/>
     </row>
-    <row r="74" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="74" spans="1:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="32"/>
       <c r="B74" s="48">
         <f t="shared" ref="B74" si="5">B73+1</f>
@@ -4911,11 +5031,22 @@
       <c r="F74" s="22"/>
       <c r="G74" s="23"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C75" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="F71:G71"/>
@@ -4925,17 +5056,6 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="C75">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
@@ -4949,14 +5069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="52" customWidth="1"/>
@@ -4970,18 +5090,18 @@
     <col min="12" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="67.5" customHeight="1"/>
-    <row r="3" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B3" s="85" t="s">
+    <row r="1" spans="2:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="49"/>
@@ -4990,9 +5110,9 @@
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
     </row>
-    <row r="4" spans="2:12" ht="17.25">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+    <row r="4" spans="2:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5002,18 +5122,18 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
     </row>
-    <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="87" t="s">
+    <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="91"/>
       <c r="E5" s="91"/>
       <c r="F5" s="91"/>
@@ -5024,7 +5144,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
     </row>
-    <row r="6" spans="2:12" s="59" customFormat="1" ht="33">
+    <row r="6" spans="2:12" s="59" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="B6" s="36">
         <v>1</v>
       </c>
@@ -5046,7 +5166,7 @@
       <c r="K6" s="58"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="2:12" s="59" customFormat="1" ht="33">
+    <row r="7" spans="2:12" s="59" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="B7" s="36">
         <v>2</v>
       </c>
@@ -5068,7 +5188,7 @@
       <c r="K7" s="58"/>
       <c r="L7" s="57"/>
     </row>
-    <row r="8" spans="2:12" s="59" customFormat="1" ht="33">
+    <row r="8" spans="2:12" s="59" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="B8" s="36">
         <v>3</v>
       </c>
@@ -5090,7 +5210,7 @@
       <c r="K8" s="58"/>
       <c r="L8" s="57"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="60"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -5102,22 +5222,22 @@
       <c r="K9" s="51"/>
       <c r="L9" s="49"/>
     </row>
-    <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="87" t="s">
+    <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="54"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="54"/>
     </row>
-    <row r="11" spans="2:12" s="59" customFormat="1" ht="16.5">
+    <row r="11" spans="2:12" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" s="36">
         <v>4</v>
       </c>
@@ -5139,7 +5259,7 @@
       <c r="K11" s="58"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="2:12" s="59" customFormat="1" ht="16.5">
+    <row r="12" spans="2:12" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B12" s="36">
         <v>5</v>
       </c>
@@ -5161,7 +5281,7 @@
       <c r="K12" s="58"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="2:12" s="59" customFormat="1" ht="33">
+    <row r="13" spans="2:12" s="59" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="B13" s="36">
         <v>6</v>
       </c>
@@ -5183,7 +5303,7 @@
       <c r="K13" s="58"/>
       <c r="L13" s="57"/>
     </row>
-    <row r="14" spans="2:12" s="59" customFormat="1" ht="33">
+    <row r="14" spans="2:12" s="59" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="B14" s="36">
         <v>7</v>
       </c>
@@ -5205,7 +5325,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="57"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="60"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -5217,22 +5337,22 @@
       <c r="K15" s="51"/>
       <c r="L15" s="49"/>
     </row>
-    <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="87" t="s">
+    <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
       <c r="H16" s="54"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="L16" s="54"/>
     </row>
-    <row r="17" spans="2:12" s="59" customFormat="1" ht="33">
+    <row r="17" spans="2:12" s="59" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="B17" s="36">
         <v>8</v>
       </c>
@@ -5254,7 +5374,7 @@
       <c r="K17" s="58"/>
       <c r="L17" s="57"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I18" s="51">
         <f>SUM(I6:I17)</f>
         <v>0</v>
@@ -5264,18 +5384,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5285,14 +5405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -5302,24 +5422,24 @@
     <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
-    <row r="3" spans="2:7" ht="17.25">
-      <c r="B3" s="85" t="s">
+    <row r="1" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17.25">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+    <row r="4" spans="2:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5329,19 +5449,19 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85"/>
-    </row>
-    <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="87" t="s">
+      <c r="G4" s="89"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="91"/>
       <c r="E5" s="91"/>
       <c r="F5" s="91"/>
       <c r="G5" s="91"/>
     </row>
-    <row r="6" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="6" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <v>1</v>
       </c>
@@ -5355,7 +5475,7 @@
       <c r="F6" s="62"/>
       <c r="G6" s="63"/>
     </row>
-    <row r="7" spans="2:7" s="33" customFormat="1" ht="33">
+    <row r="7" spans="2:7" s="33" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="20">
         <v>2</v>
       </c>
@@ -5369,7 +5489,7 @@
       <c r="F7" s="62"/>
       <c r="G7" s="64"/>
     </row>
-    <row r="8" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1">
+    <row r="8" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20">
         <v>3</v>
       </c>
@@ -5383,7 +5503,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="9" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="20">
         <v>4</v>
       </c>
@@ -5397,7 +5517,7 @@
       <c r="F9" s="62"/>
       <c r="G9" s="63"/>
     </row>
-    <row r="10" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="10" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -5405,17 +5525,17 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1">
-      <c r="B11" s="87" t="s">
+    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="92"/>
       <c r="E11" s="92"/>
       <c r="F11" s="92"/>
       <c r="G11" s="92"/>
     </row>
-    <row r="12" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="12" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="65">
         <v>1</v>
       </c>
@@ -5429,7 +5549,7 @@
       <c r="F12" s="67"/>
       <c r="G12" s="68"/>
     </row>
-    <row r="13" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="13" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="65">
         <v>2</v>
       </c>
@@ -5443,7 +5563,7 @@
       <c r="F13" s="67"/>
       <c r="G13" s="68"/>
     </row>
-    <row r="14" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="14" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="65">
         <v>3</v>
       </c>
@@ -5457,7 +5577,7 @@
       </c>
       <c r="G14" s="68"/>
     </row>
-    <row r="15" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="15" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="65">
         <v>4</v>
       </c>
@@ -5471,7 +5591,7 @@
       <c r="F15" s="67"/>
       <c r="G15" s="68"/>
     </row>
-    <row r="16" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="16" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="65">
         <v>5</v>
       </c>
@@ -5485,7 +5605,7 @@
       </c>
       <c r="G16" s="68"/>
     </row>
-    <row r="17" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="17" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="65">
         <v>6</v>
       </c>
@@ -5499,7 +5619,7 @@
       </c>
       <c r="G17" s="68"/>
     </row>
-    <row r="18" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="18" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="65">
         <f>+B17+1</f>
         <v>7</v>
@@ -5514,7 +5634,7 @@
       <c r="F18" s="67"/>
       <c r="G18" s="68"/>
     </row>
-    <row r="19" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="19" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="65">
         <f>+B18+1</f>
         <v>8</v>
@@ -5529,7 +5649,7 @@
       <c r="F19" s="67"/>
       <c r="G19" s="68"/>
     </row>
-    <row r="20" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="20" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -5537,17 +5657,17 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B21" s="87" t="s">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-    </row>
-    <row r="22" spans="2:7" s="33" customFormat="1" ht="16.5">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+    </row>
+    <row r="22" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="20">
         <v>1</v>
       </c>
@@ -5561,7 +5681,7 @@
       <c r="F22" s="69"/>
       <c r="G22" s="70"/>
     </row>
-    <row r="23" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="23" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="20">
         <f>+B22+1</f>
         <v>2</v>
@@ -5576,7 +5696,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="2:7" s="33" customFormat="1" ht="15.75" customHeight="1">
+    <row r="24" spans="2:7" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20">
         <f>+B23+1</f>
         <v>3</v>
@@ -5593,7 +5713,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="33" customFormat="1" ht="33">
+    <row r="25" spans="2:7" s="33" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="20">
         <f t="shared" ref="B25:B26" si="0">+B24+1</f>
         <v>4</v>
@@ -5608,7 +5728,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="2:7" s="33" customFormat="1" ht="16.5">
+    <row r="26" spans="2:7" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5625,18 +5745,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
+++ b/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-Auditoria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -1174,6 +1174,15 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,15 +1190,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,7 +1262,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1324,7 +1323,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,11 +1336,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="119300480"/>
-        <c:axId val="119302016"/>
+        <c:axId val="120217984"/>
+        <c:axId val="120219520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119300480"/>
+        <c:axId val="120217984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,14 +1381,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119302016"/>
+        <c:crossAx val="120219520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119302016"/>
+        <c:axId val="120219520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1439,7 +1438,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119300480"/>
+        <c:crossAx val="120217984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,7 +1480,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1522,7 +1521,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1609,11 +1607,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="119338880"/>
-        <c:axId val="119340416"/>
+        <c:axId val="120256384"/>
+        <c:axId val="120257920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119338880"/>
+        <c:axId val="120256384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,14 +1652,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119340416"/>
+        <c:crossAx val="120257920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119340416"/>
+        <c:axId val="120257920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1711,7 +1709,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119338880"/>
+        <c:crossAx val="120256384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1753,7 +1751,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1789,7 +1787,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1858,11 +1855,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="119643136"/>
-        <c:axId val="119653120"/>
+        <c:axId val="120560640"/>
+        <c:axId val="120570624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119643136"/>
+        <c:axId val="120560640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,14 +1900,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119653120"/>
+        <c:crossAx val="120570624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119653120"/>
+        <c:axId val="120570624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1960,7 +1957,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119643136"/>
+        <c:crossAx val="120560640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2002,7 +1999,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2038,7 +2035,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2107,11 +2103,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="119181696"/>
-        <c:axId val="119183232"/>
+        <c:axId val="120099200"/>
+        <c:axId val="120100736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119181696"/>
+        <c:axId val="120099200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,14 +2148,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119183232"/>
+        <c:crossAx val="120100736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119183232"/>
+        <c:axId val="120100736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2209,7 +2205,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119181696"/>
+        <c:crossAx val="120099200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2251,7 +2247,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2900,7 +2896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2910,7 +2906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
@@ -2975,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="84">
-        <v>42496</v>
+        <v>42500</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
@@ -3061,11 +3057,11 @@
       </c>
       <c r="C17" s="9">
         <f>COUNTA(Procesos!D33:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="10" t="e">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
         <f>COUNTIF((Procesos!D33:D36),"x")/(COUNTIF((Procesos!D33:D36),"x")+COUNTIF((Procesos!E33:E36),"x"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
@@ -3331,7 +3327,7 @@
   <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3354,22 +3350,22 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -3379,17 +3375,17 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B6" s="20">
@@ -3482,14 +3478,14 @@
     </row>
     <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B14" s="20">
@@ -3597,14 +3593,14 @@
     </row>
     <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B23" s="20">
@@ -3727,10 +3723,10 @@
     </row>
     <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="85"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -3745,7 +3741,9 @@
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="2:7" s="24" customFormat="1" ht="16.5">
@@ -3758,7 +3756,9 @@
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="2:7" s="24" customFormat="1" ht="16.5">
@@ -3769,7 +3769,9 @@
       <c r="C35" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -3782,7 +3784,9 @@
       <c r="C36" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -3794,12 +3798,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -3807,6 +3805,12 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:F30 C28:C30">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
@@ -3823,7 +3827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
@@ -3849,23 +3853,23 @@
     </row>
     <row r="3" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="34"/>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -3875,18 +3879,18 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="28"/>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A6" s="32"/>
@@ -4074,14 +4078,14 @@
     </row>
     <row r="18" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="43"/>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A19" s="32"/>
@@ -4301,14 +4305,14 @@
     </row>
     <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="88"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A34" s="32"/>
@@ -4496,14 +4500,14 @@
     </row>
     <row r="46" spans="1:7" s="44" customFormat="1" ht="18.75" customHeight="1">
       <c r="A46" s="43"/>
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
     </row>
     <row r="47" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A47" s="32"/>
@@ -4771,14 +4775,14 @@
     </row>
     <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="43"/>
-      <c r="B64" s="88" t="s">
+      <c r="B64" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
     </row>
     <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A65" s="32"/>
@@ -4870,14 +4874,14 @@
     </row>
     <row r="71" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A71" s="43"/>
-      <c r="B71" s="88" t="s">
+      <c r="B71" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
     </row>
     <row r="72" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A72" s="32"/>
@@ -4935,17 +4939,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="F71:G71"/>
@@ -4955,6 +4948,17 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="C75">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
@@ -4991,16 +4995,16 @@
   <sheetData>
     <row r="1" spans="2:12" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="49"/>
@@ -5010,8 +5014,8 @@
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" ht="17.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5021,7 +5025,7 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -5029,10 +5033,10 @@
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="91"/>
       <c r="E5" s="91"/>
       <c r="F5" s="91"/>
@@ -5122,14 +5126,14 @@
       <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="54"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -5237,14 +5241,14 @@
       <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="54"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -5283,18 +5287,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5307,7 +5311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -5323,22 +5327,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:7" ht="17.25">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5348,13 +5352,13 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="91"/>
       <c r="E5" s="91"/>
       <c r="F5" s="91"/>
@@ -5425,10 +5429,10 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="92"/>
       <c r="E11" s="92"/>
       <c r="F11" s="92"/>
@@ -5557,14 +5561,14 @@
       <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
     </row>
     <row r="22" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B22" s="20">
@@ -5644,18 +5648,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
